--- a/LIFTOFF/missing_verified_genes_blat_RNAseq.xlsx
+++ b/LIFTOFF/missing_verified_genes_blat_RNAseq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\yps1009_nanopore_genomeSeq\LIFTOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D303735-298F-4A90-95D8-A9DB31A100EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AB4448-5942-49EE-8852-7ADCD00B4362}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="172">
   <si>
     <t>seq_id</t>
   </si>
@@ -521,6 +521,21 @@
   </si>
   <si>
     <t>not detected (normal it's a sporulation gene)</t>
+  </si>
+  <si>
+    <t>in gap</t>
+  </si>
+  <si>
+    <t>not in gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not in gap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check alignment to contigs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check alignment to contigs (JW) </t>
   </si>
 </sst>
 </file>
@@ -544,12 +559,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -590,18 +611,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -942,1181 +968,2843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:FS22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AQ9" sqref="AQ9:FS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="5" max="5" width="12.6328125" customWidth="1"/>
     <col min="8" max="8" width="23.36328125" customWidth="1"/>
-    <col min="14" max="14" width="40.36328125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="40.36328125" style="2" customWidth="1"/>
     <col min="17" max="17" width="16.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:175" x14ac:dyDescent="0.75">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
+    <row r="2" spans="1:175" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="5">
         <v>3257</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>309070</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>310155</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="R2" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
+    <row r="3" spans="1:175" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A3" s="5">
         <v>9420</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>249869</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>252738</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>7</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="R3" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
+    <row r="4" spans="1:175" x14ac:dyDescent="0.75">
+      <c r="A4" s="5">
         <v>9426</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>252897</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>253859</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>7</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="R4" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
+    <row r="5" spans="1:175" x14ac:dyDescent="0.75">
+      <c r="A5" s="5">
         <v>9434</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>255663</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>256964</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="4">
         <v>7</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="R5" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
+    <row r="6" spans="1:175" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A6" s="5">
         <v>9438</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>257707</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>261501</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>7</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="R6" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
+    <row r="7" spans="1:175" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A7" s="5">
         <v>17925</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>454696</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>455070</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>12</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="R7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A8" s="1">
+    <row r="8" spans="1:175" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A8" s="5">
         <v>18000</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>469317</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>470405</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>12</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="R8" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A9" s="1">
+    <row r="9" spans="1:175" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="5">
         <v>18012</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>472969</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>474057</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="4">
         <v>12</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="R9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9"/>
+      <c r="CG9"/>
+      <c r="CH9"/>
+      <c r="CI9"/>
+      <c r="CJ9"/>
+      <c r="CK9"/>
+      <c r="CL9"/>
+      <c r="CM9"/>
+      <c r="CN9"/>
+      <c r="CO9"/>
+      <c r="CP9"/>
+      <c r="CQ9"/>
+      <c r="CR9"/>
+      <c r="CS9"/>
+      <c r="CT9"/>
+      <c r="CU9"/>
+      <c r="CV9"/>
+      <c r="CW9"/>
+      <c r="CX9"/>
+      <c r="CY9"/>
+      <c r="CZ9"/>
+      <c r="DA9"/>
+      <c r="DB9"/>
+      <c r="DC9"/>
+      <c r="DD9"/>
+      <c r="DE9"/>
+      <c r="DF9"/>
+      <c r="DG9"/>
+      <c r="DH9"/>
+      <c r="DI9"/>
+      <c r="DJ9"/>
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+      <c r="DP9"/>
+      <c r="DQ9"/>
+      <c r="DR9"/>
+      <c r="DS9"/>
+      <c r="DT9"/>
+      <c r="DU9"/>
+      <c r="DV9"/>
+      <c r="DW9"/>
+      <c r="DX9"/>
+      <c r="DY9"/>
+      <c r="DZ9"/>
+      <c r="EA9"/>
+      <c r="EB9"/>
+      <c r="EC9"/>
+      <c r="ED9"/>
+      <c r="EE9"/>
+      <c r="EF9"/>
+      <c r="EG9"/>
+      <c r="EH9"/>
+      <c r="EI9"/>
+      <c r="EJ9"/>
+      <c r="EK9"/>
+      <c r="EL9"/>
+      <c r="EM9"/>
+      <c r="EN9"/>
+      <c r="EO9"/>
+      <c r="EP9"/>
+      <c r="EQ9"/>
+      <c r="ER9"/>
+      <c r="ES9"/>
+      <c r="ET9"/>
+      <c r="EU9"/>
+      <c r="EV9"/>
+      <c r="EW9"/>
+      <c r="EX9"/>
+      <c r="EY9"/>
+      <c r="EZ9"/>
+      <c r="FA9"/>
+      <c r="FB9"/>
+      <c r="FC9"/>
+      <c r="FD9"/>
+      <c r="FE9"/>
+      <c r="FF9"/>
+      <c r="FG9"/>
+      <c r="FH9"/>
+      <c r="FI9"/>
+      <c r="FJ9"/>
+      <c r="FK9"/>
+      <c r="FL9"/>
+      <c r="FM9"/>
+      <c r="FN9"/>
+      <c r="FO9"/>
+      <c r="FP9"/>
+      <c r="FQ9"/>
+      <c r="FR9"/>
+      <c r="FS9"/>
     </row>
-    <row r="10" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A10" s="1">
+    <row r="10" spans="1:175" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A10" s="5">
         <v>18038</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>482549</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>483637</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <v>12</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="R10" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A11" s="1">
+    <row r="11" spans="1:175" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A11" s="5">
         <v>18050</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>486201</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>487289</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="4">
         <v>12</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="R11" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A12" s="1">
+    <row r="12" spans="1:175" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A12" s="5">
         <v>21695</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>18001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>19302</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="4">
         <v>14</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="R12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
+      <c r="CF12"/>
+      <c r="CG12"/>
+      <c r="CH12"/>
+      <c r="CI12"/>
+      <c r="CJ12"/>
+      <c r="CK12"/>
+      <c r="CL12"/>
+      <c r="CM12"/>
+      <c r="CN12"/>
+      <c r="CO12"/>
+      <c r="CP12"/>
+      <c r="CQ12"/>
+      <c r="CR12"/>
+      <c r="CS12"/>
+      <c r="CT12"/>
+      <c r="CU12"/>
+      <c r="CV12"/>
+      <c r="CW12"/>
+      <c r="CX12"/>
+      <c r="CY12"/>
+      <c r="CZ12"/>
+      <c r="DA12"/>
+      <c r="DB12"/>
+      <c r="DC12"/>
+      <c r="DD12"/>
+      <c r="DE12"/>
+      <c r="DF12"/>
+      <c r="DG12"/>
+      <c r="DH12"/>
+      <c r="DI12"/>
+      <c r="DJ12"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12"/>
+      <c r="DR12"/>
+      <c r="DS12"/>
+      <c r="DT12"/>
+      <c r="DU12"/>
+      <c r="DV12"/>
+      <c r="DW12"/>
+      <c r="DX12"/>
+      <c r="DY12"/>
+      <c r="DZ12"/>
+      <c r="EA12"/>
+      <c r="EB12"/>
+      <c r="EC12"/>
+      <c r="ED12"/>
+      <c r="EE12"/>
+      <c r="EF12"/>
+      <c r="EG12"/>
+      <c r="EH12"/>
+      <c r="EI12"/>
+      <c r="EJ12"/>
+      <c r="EK12"/>
+      <c r="EL12"/>
+      <c r="EM12"/>
+      <c r="EN12"/>
+      <c r="EO12"/>
+      <c r="EP12"/>
+      <c r="EQ12"/>
+      <c r="ER12"/>
+      <c r="ES12"/>
+      <c r="ET12"/>
+      <c r="EU12"/>
+      <c r="EV12"/>
+      <c r="EW12"/>
+      <c r="EX12"/>
+      <c r="EY12"/>
+      <c r="EZ12"/>
+      <c r="FA12"/>
+      <c r="FB12"/>
+      <c r="FC12"/>
+      <c r="FD12"/>
+      <c r="FE12"/>
+      <c r="FF12"/>
+      <c r="FG12"/>
+      <c r="FH12"/>
+      <c r="FI12"/>
+      <c r="FJ12"/>
+      <c r="FK12"/>
+      <c r="FL12"/>
+      <c r="FM12"/>
+      <c r="FN12"/>
+      <c r="FO12"/>
+      <c r="FP12"/>
+      <c r="FQ12"/>
+      <c r="FR12"/>
+      <c r="FS12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A13" s="1">
+    <row r="13" spans="1:175" s="3" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="5">
         <v>21699</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>19541</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>22633</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="4">
         <v>14</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="R13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13"/>
+      <c r="BQ13"/>
+      <c r="BR13"/>
+      <c r="BS13"/>
+      <c r="BT13"/>
+      <c r="BU13"/>
+      <c r="BV13"/>
+      <c r="BW13"/>
+      <c r="BX13"/>
+      <c r="BY13"/>
+      <c r="BZ13"/>
+      <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13"/>
+      <c r="CE13"/>
+      <c r="CF13"/>
+      <c r="CG13"/>
+      <c r="CH13"/>
+      <c r="CI13"/>
+      <c r="CJ13"/>
+      <c r="CK13"/>
+      <c r="CL13"/>
+      <c r="CM13"/>
+      <c r="CN13"/>
+      <c r="CO13"/>
+      <c r="CP13"/>
+      <c r="CQ13"/>
+      <c r="CR13"/>
+      <c r="CS13"/>
+      <c r="CT13"/>
+      <c r="CU13"/>
+      <c r="CV13"/>
+      <c r="CW13"/>
+      <c r="CX13"/>
+      <c r="CY13"/>
+      <c r="CZ13"/>
+      <c r="DA13"/>
+      <c r="DB13"/>
+      <c r="DC13"/>
+      <c r="DD13"/>
+      <c r="DE13"/>
+      <c r="DF13"/>
+      <c r="DG13"/>
+      <c r="DH13"/>
+      <c r="DI13"/>
+      <c r="DJ13"/>
+      <c r="DK13"/>
+      <c r="DL13"/>
+      <c r="DM13"/>
+      <c r="DN13"/>
+      <c r="DO13"/>
+      <c r="DP13"/>
+      <c r="DQ13"/>
+      <c r="DR13"/>
+      <c r="DS13"/>
+      <c r="DT13"/>
+      <c r="DU13"/>
+      <c r="DV13"/>
+      <c r="DW13"/>
+      <c r="DX13"/>
+      <c r="DY13"/>
+      <c r="DZ13"/>
+      <c r="EA13"/>
+      <c r="EB13"/>
+      <c r="EC13"/>
+      <c r="ED13"/>
+      <c r="EE13"/>
+      <c r="EF13"/>
+      <c r="EG13"/>
+      <c r="EH13"/>
+      <c r="EI13"/>
+      <c r="EJ13"/>
+      <c r="EK13"/>
+      <c r="EL13"/>
+      <c r="EM13"/>
+      <c r="EN13"/>
+      <c r="EO13"/>
+      <c r="EP13"/>
+      <c r="EQ13"/>
+      <c r="ER13"/>
+      <c r="ES13"/>
+      <c r="ET13"/>
+      <c r="EU13"/>
+      <c r="EV13"/>
+      <c r="EW13"/>
+      <c r="EX13"/>
+      <c r="EY13"/>
+      <c r="EZ13"/>
+      <c r="FA13"/>
+      <c r="FB13"/>
+      <c r="FC13"/>
+      <c r="FD13"/>
+      <c r="FE13"/>
+      <c r="FF13"/>
+      <c r="FG13"/>
+      <c r="FH13"/>
+      <c r="FI13"/>
+      <c r="FJ13"/>
+      <c r="FK13"/>
+      <c r="FL13"/>
+      <c r="FM13"/>
+      <c r="FN13"/>
+      <c r="FO13"/>
+      <c r="FP13"/>
+      <c r="FQ13"/>
+      <c r="FR13"/>
+      <c r="FS13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A14" s="1">
+    <row r="14" spans="1:175" s="3" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A14" s="5">
         <v>21702</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>22834</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>23274</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="4">
         <v>14</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="R14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14"/>
+      <c r="BQ14"/>
+      <c r="BR14"/>
+      <c r="BS14"/>
+      <c r="BT14"/>
+      <c r="BU14"/>
+      <c r="BV14"/>
+      <c r="BW14"/>
+      <c r="BX14"/>
+      <c r="BY14"/>
+      <c r="BZ14"/>
+      <c r="CA14"/>
+      <c r="CB14"/>
+      <c r="CC14"/>
+      <c r="CD14"/>
+      <c r="CE14"/>
+      <c r="CF14"/>
+      <c r="CG14"/>
+      <c r="CH14"/>
+      <c r="CI14"/>
+      <c r="CJ14"/>
+      <c r="CK14"/>
+      <c r="CL14"/>
+      <c r="CM14"/>
+      <c r="CN14"/>
+      <c r="CO14"/>
+      <c r="CP14"/>
+      <c r="CQ14"/>
+      <c r="CR14"/>
+      <c r="CS14"/>
+      <c r="CT14"/>
+      <c r="CU14"/>
+      <c r="CV14"/>
+      <c r="CW14"/>
+      <c r="CX14"/>
+      <c r="CY14"/>
+      <c r="CZ14"/>
+      <c r="DA14"/>
+      <c r="DB14"/>
+      <c r="DC14"/>
+      <c r="DD14"/>
+      <c r="DE14"/>
+      <c r="DF14"/>
+      <c r="DG14"/>
+      <c r="DH14"/>
+      <c r="DI14"/>
+      <c r="DJ14"/>
+      <c r="DK14"/>
+      <c r="DL14"/>
+      <c r="DM14"/>
+      <c r="DN14"/>
+      <c r="DO14"/>
+      <c r="DP14"/>
+      <c r="DQ14"/>
+      <c r="DR14"/>
+      <c r="DS14"/>
+      <c r="DT14"/>
+      <c r="DU14"/>
+      <c r="DV14"/>
+      <c r="DW14"/>
+      <c r="DX14"/>
+      <c r="DY14"/>
+      <c r="DZ14"/>
+      <c r="EA14"/>
+      <c r="EB14"/>
+      <c r="EC14"/>
+      <c r="ED14"/>
+      <c r="EE14"/>
+      <c r="EF14"/>
+      <c r="EG14"/>
+      <c r="EH14"/>
+      <c r="EI14"/>
+      <c r="EJ14"/>
+      <c r="EK14"/>
+      <c r="EL14"/>
+      <c r="EM14"/>
+      <c r="EN14"/>
+      <c r="EO14"/>
+      <c r="EP14"/>
+      <c r="EQ14"/>
+      <c r="ER14"/>
+      <c r="ES14"/>
+      <c r="ET14"/>
+      <c r="EU14"/>
+      <c r="EV14"/>
+      <c r="EW14"/>
+      <c r="EX14"/>
+      <c r="EY14"/>
+      <c r="EZ14"/>
+      <c r="FA14"/>
+      <c r="FB14"/>
+      <c r="FC14"/>
+      <c r="FD14"/>
+      <c r="FE14"/>
+      <c r="FF14"/>
+      <c r="FG14"/>
+      <c r="FH14"/>
+      <c r="FI14"/>
+      <c r="FJ14"/>
+      <c r="FK14"/>
+      <c r="FL14"/>
+      <c r="FM14"/>
+      <c r="FN14"/>
+      <c r="FO14"/>
+      <c r="FP14"/>
+      <c r="FQ14"/>
+      <c r="FR14"/>
+      <c r="FS14"/>
     </row>
-    <row r="15" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A15" s="1">
+    <row r="15" spans="1:175" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A15" s="5">
         <v>21706</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>24048</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>27173</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="4">
         <v>14</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="R15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+      <c r="BK15"/>
+      <c r="BL15"/>
+      <c r="BM15"/>
+      <c r="BN15"/>
+      <c r="BO15"/>
+      <c r="BP15"/>
+      <c r="BQ15"/>
+      <c r="BR15"/>
+      <c r="BS15"/>
+      <c r="BT15"/>
+      <c r="BU15"/>
+      <c r="BV15"/>
+      <c r="BW15"/>
+      <c r="BX15"/>
+      <c r="BY15"/>
+      <c r="BZ15"/>
+      <c r="CA15"/>
+      <c r="CB15"/>
+      <c r="CC15"/>
+      <c r="CD15"/>
+      <c r="CE15"/>
+      <c r="CF15"/>
+      <c r="CG15"/>
+      <c r="CH15"/>
+      <c r="CI15"/>
+      <c r="CJ15"/>
+      <c r="CK15"/>
+      <c r="CL15"/>
+      <c r="CM15"/>
+      <c r="CN15"/>
+      <c r="CO15"/>
+      <c r="CP15"/>
+      <c r="CQ15"/>
+      <c r="CR15"/>
+      <c r="CS15"/>
+      <c r="CT15"/>
+      <c r="CU15"/>
+      <c r="CV15"/>
+      <c r="CW15"/>
+      <c r="CX15"/>
+      <c r="CY15"/>
+      <c r="CZ15"/>
+      <c r="DA15"/>
+      <c r="DB15"/>
+      <c r="DC15"/>
+      <c r="DD15"/>
+      <c r="DE15"/>
+      <c r="DF15"/>
+      <c r="DG15"/>
+      <c r="DH15"/>
+      <c r="DI15"/>
+      <c r="DJ15"/>
+      <c r="DK15"/>
+      <c r="DL15"/>
+      <c r="DM15"/>
+      <c r="DN15"/>
+      <c r="DO15"/>
+      <c r="DP15"/>
+      <c r="DQ15"/>
+      <c r="DR15"/>
+      <c r="DS15"/>
+      <c r="DT15"/>
+      <c r="DU15"/>
+      <c r="DV15"/>
+      <c r="DW15"/>
+      <c r="DX15"/>
+      <c r="DY15"/>
+      <c r="DZ15"/>
+      <c r="EA15"/>
+      <c r="EB15"/>
+      <c r="EC15"/>
+      <c r="ED15"/>
+      <c r="EE15"/>
+      <c r="EF15"/>
+      <c r="EG15"/>
+      <c r="EH15"/>
+      <c r="EI15"/>
+      <c r="EJ15"/>
+      <c r="EK15"/>
+      <c r="EL15"/>
+      <c r="EM15"/>
+      <c r="EN15"/>
+      <c r="EO15"/>
+      <c r="EP15"/>
+      <c r="EQ15"/>
+      <c r="ER15"/>
+      <c r="ES15"/>
+      <c r="ET15"/>
+      <c r="EU15"/>
+      <c r="EV15"/>
+      <c r="EW15"/>
+      <c r="EX15"/>
+      <c r="EY15"/>
+      <c r="EZ15"/>
+      <c r="FA15"/>
+      <c r="FB15"/>
+      <c r="FC15"/>
+      <c r="FD15"/>
+      <c r="FE15"/>
+      <c r="FF15"/>
+      <c r="FG15"/>
+      <c r="FH15"/>
+      <c r="FI15"/>
+      <c r="FJ15"/>
+      <c r="FK15"/>
+      <c r="FL15"/>
+      <c r="FM15"/>
+      <c r="FN15"/>
+      <c r="FO15"/>
+      <c r="FP15"/>
+      <c r="FQ15"/>
+      <c r="FR15"/>
+      <c r="FS15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A16" s="1">
+    <row r="16" spans="1:175" s="3" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="5">
         <v>21710</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>27337</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>28347</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="4">
         <v>14</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="R16" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+      <c r="BK16"/>
+      <c r="BL16"/>
+      <c r="BM16"/>
+      <c r="BN16"/>
+      <c r="BO16"/>
+      <c r="BP16"/>
+      <c r="BQ16"/>
+      <c r="BR16"/>
+      <c r="BS16"/>
+      <c r="BT16"/>
+      <c r="BU16"/>
+      <c r="BV16"/>
+      <c r="BW16"/>
+      <c r="BX16"/>
+      <c r="BY16"/>
+      <c r="BZ16"/>
+      <c r="CA16"/>
+      <c r="CB16"/>
+      <c r="CC16"/>
+      <c r="CD16"/>
+      <c r="CE16"/>
+      <c r="CF16"/>
+      <c r="CG16"/>
+      <c r="CH16"/>
+      <c r="CI16"/>
+      <c r="CJ16"/>
+      <c r="CK16"/>
+      <c r="CL16"/>
+      <c r="CM16"/>
+      <c r="CN16"/>
+      <c r="CO16"/>
+      <c r="CP16"/>
+      <c r="CQ16"/>
+      <c r="CR16"/>
+      <c r="CS16"/>
+      <c r="CT16"/>
+      <c r="CU16"/>
+      <c r="CV16"/>
+      <c r="CW16"/>
+      <c r="CX16"/>
+      <c r="CY16"/>
+      <c r="CZ16"/>
+      <c r="DA16"/>
+      <c r="DB16"/>
+      <c r="DC16"/>
+      <c r="DD16"/>
+      <c r="DE16"/>
+      <c r="DF16"/>
+      <c r="DG16"/>
+      <c r="DH16"/>
+      <c r="DI16"/>
+      <c r="DJ16"/>
+      <c r="DK16"/>
+      <c r="DL16"/>
+      <c r="DM16"/>
+      <c r="DN16"/>
+      <c r="DO16"/>
+      <c r="DP16"/>
+      <c r="DQ16"/>
+      <c r="DR16"/>
+      <c r="DS16"/>
+      <c r="DT16"/>
+      <c r="DU16"/>
+      <c r="DV16"/>
+      <c r="DW16"/>
+      <c r="DX16"/>
+      <c r="DY16"/>
+      <c r="DZ16"/>
+      <c r="EA16"/>
+      <c r="EB16"/>
+      <c r="EC16"/>
+      <c r="ED16"/>
+      <c r="EE16"/>
+      <c r="EF16"/>
+      <c r="EG16"/>
+      <c r="EH16"/>
+      <c r="EI16"/>
+      <c r="EJ16"/>
+      <c r="EK16"/>
+      <c r="EL16"/>
+      <c r="EM16"/>
+      <c r="EN16"/>
+      <c r="EO16"/>
+      <c r="EP16"/>
+      <c r="EQ16"/>
+      <c r="ER16"/>
+      <c r="ES16"/>
+      <c r="ET16"/>
+      <c r="EU16"/>
+      <c r="EV16"/>
+      <c r="EW16"/>
+      <c r="EX16"/>
+      <c r="EY16"/>
+      <c r="EZ16"/>
+      <c r="FA16"/>
+      <c r="FB16"/>
+      <c r="FC16"/>
+      <c r="FD16"/>
+      <c r="FE16"/>
+      <c r="FF16"/>
+      <c r="FG16"/>
+      <c r="FH16"/>
+      <c r="FI16"/>
+      <c r="FJ16"/>
+      <c r="FK16"/>
+      <c r="FL16"/>
+      <c r="FM16"/>
+      <c r="FN16"/>
+      <c r="FO16"/>
+      <c r="FP16"/>
+      <c r="FQ16"/>
+      <c r="FR16"/>
+      <c r="FS16"/>
     </row>
-    <row r="17" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A17" s="1">
+    <row r="17" spans="1:175" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A17" s="5">
         <v>21717</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>28739</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>31378</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="4">
         <v>14</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="R17" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CD17"/>
+      <c r="CE17"/>
+      <c r="CF17"/>
+      <c r="CG17"/>
+      <c r="CH17"/>
+      <c r="CI17"/>
+      <c r="CJ17"/>
+      <c r="CK17"/>
+      <c r="CL17"/>
+      <c r="CM17"/>
+      <c r="CN17"/>
+      <c r="CO17"/>
+      <c r="CP17"/>
+      <c r="CQ17"/>
+      <c r="CR17"/>
+      <c r="CS17"/>
+      <c r="CT17"/>
+      <c r="CU17"/>
+      <c r="CV17"/>
+      <c r="CW17"/>
+      <c r="CX17"/>
+      <c r="CY17"/>
+      <c r="CZ17"/>
+      <c r="DA17"/>
+      <c r="DB17"/>
+      <c r="DC17"/>
+      <c r="DD17"/>
+      <c r="DE17"/>
+      <c r="DF17"/>
+      <c r="DG17"/>
+      <c r="DH17"/>
+      <c r="DI17"/>
+      <c r="DJ17"/>
+      <c r="DK17"/>
+      <c r="DL17"/>
+      <c r="DM17"/>
+      <c r="DN17"/>
+      <c r="DO17"/>
+      <c r="DP17"/>
+      <c r="DQ17"/>
+      <c r="DR17"/>
+      <c r="DS17"/>
+      <c r="DT17"/>
+      <c r="DU17"/>
+      <c r="DV17"/>
+      <c r="DW17"/>
+      <c r="DX17"/>
+      <c r="DY17"/>
+      <c r="DZ17"/>
+      <c r="EA17"/>
+      <c r="EB17"/>
+      <c r="EC17"/>
+      <c r="ED17"/>
+      <c r="EE17"/>
+      <c r="EF17"/>
+      <c r="EG17"/>
+      <c r="EH17"/>
+      <c r="EI17"/>
+      <c r="EJ17"/>
+      <c r="EK17"/>
+      <c r="EL17"/>
+      <c r="EM17"/>
+      <c r="EN17"/>
+      <c r="EO17"/>
+      <c r="EP17"/>
+      <c r="EQ17"/>
+      <c r="ER17"/>
+      <c r="ES17"/>
+      <c r="ET17"/>
+      <c r="EU17"/>
+      <c r="EV17"/>
+      <c r="EW17"/>
+      <c r="EX17"/>
+      <c r="EY17"/>
+      <c r="EZ17"/>
+      <c r="FA17"/>
+      <c r="FB17"/>
+      <c r="FC17"/>
+      <c r="FD17"/>
+      <c r="FE17"/>
+      <c r="FF17"/>
+      <c r="FG17"/>
+      <c r="FH17"/>
+      <c r="FI17"/>
+      <c r="FJ17"/>
+      <c r="FK17"/>
+      <c r="FL17"/>
+      <c r="FM17"/>
+      <c r="FN17"/>
+      <c r="FO17"/>
+      <c r="FP17"/>
+      <c r="FQ17"/>
+      <c r="FR17"/>
+      <c r="FS17"/>
     </row>
-    <row r="18" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A18" s="1">
+    <row r="18" spans="1:175" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A18" s="5">
         <v>21724</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>31944</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>33188</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="4">
         <v>14</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="R18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CA18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
+      <c r="CD18"/>
+      <c r="CE18"/>
+      <c r="CF18"/>
+      <c r="CG18"/>
+      <c r="CH18"/>
+      <c r="CI18"/>
+      <c r="CJ18"/>
+      <c r="CK18"/>
+      <c r="CL18"/>
+      <c r="CM18"/>
+      <c r="CN18"/>
+      <c r="CO18"/>
+      <c r="CP18"/>
+      <c r="CQ18"/>
+      <c r="CR18"/>
+      <c r="CS18"/>
+      <c r="CT18"/>
+      <c r="CU18"/>
+      <c r="CV18"/>
+      <c r="CW18"/>
+      <c r="CX18"/>
+      <c r="CY18"/>
+      <c r="CZ18"/>
+      <c r="DA18"/>
+      <c r="DB18"/>
+      <c r="DC18"/>
+      <c r="DD18"/>
+      <c r="DE18"/>
+      <c r="DF18"/>
+      <c r="DG18"/>
+      <c r="DH18"/>
+      <c r="DI18"/>
+      <c r="DJ18"/>
+      <c r="DK18"/>
+      <c r="DL18"/>
+      <c r="DM18"/>
+      <c r="DN18"/>
+      <c r="DO18"/>
+      <c r="DP18"/>
+      <c r="DQ18"/>
+      <c r="DR18"/>
+      <c r="DS18"/>
+      <c r="DT18"/>
+      <c r="DU18"/>
+      <c r="DV18"/>
+      <c r="DW18"/>
+      <c r="DX18"/>
+      <c r="DY18"/>
+      <c r="DZ18"/>
+      <c r="EA18"/>
+      <c r="EB18"/>
+      <c r="EC18"/>
+      <c r="ED18"/>
+      <c r="EE18"/>
+      <c r="EF18"/>
+      <c r="EG18"/>
+      <c r="EH18"/>
+      <c r="EI18"/>
+      <c r="EJ18"/>
+      <c r="EK18"/>
+      <c r="EL18"/>
+      <c r="EM18"/>
+      <c r="EN18"/>
+      <c r="EO18"/>
+      <c r="EP18"/>
+      <c r="EQ18"/>
+      <c r="ER18"/>
+      <c r="ES18"/>
+      <c r="ET18"/>
+      <c r="EU18"/>
+      <c r="EV18"/>
+      <c r="EW18"/>
+      <c r="EX18"/>
+      <c r="EY18"/>
+      <c r="EZ18"/>
+      <c r="FA18"/>
+      <c r="FB18"/>
+      <c r="FC18"/>
+      <c r="FD18"/>
+      <c r="FE18"/>
+      <c r="FF18"/>
+      <c r="FG18"/>
+      <c r="FH18"/>
+      <c r="FI18"/>
+      <c r="FJ18"/>
+      <c r="FK18"/>
+      <c r="FL18"/>
+      <c r="FM18"/>
+      <c r="FN18"/>
+      <c r="FO18"/>
+      <c r="FP18"/>
+      <c r="FQ18"/>
+      <c r="FR18"/>
+      <c r="FS18"/>
     </row>
-    <row r="19" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A19" s="1">
+    <row r="19" spans="1:175" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A19" s="5">
         <v>25309</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>795801</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>796793</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="4">
         <v>15</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="R19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
+      <c r="BN19"/>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BX19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+      <c r="CA19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CD19"/>
+      <c r="CE19"/>
+      <c r="CF19"/>
+      <c r="CG19"/>
+      <c r="CH19"/>
+      <c r="CI19"/>
+      <c r="CJ19"/>
+      <c r="CK19"/>
+      <c r="CL19"/>
+      <c r="CM19"/>
+      <c r="CN19"/>
+      <c r="CO19"/>
+      <c r="CP19"/>
+      <c r="CQ19"/>
+      <c r="CR19"/>
+      <c r="CS19"/>
+      <c r="CT19"/>
+      <c r="CU19"/>
+      <c r="CV19"/>
+      <c r="CW19"/>
+      <c r="CX19"/>
+      <c r="CY19"/>
+      <c r="CZ19"/>
+      <c r="DA19"/>
+      <c r="DB19"/>
+      <c r="DC19"/>
+      <c r="DD19"/>
+      <c r="DE19"/>
+      <c r="DF19"/>
+      <c r="DG19"/>
+      <c r="DH19"/>
+      <c r="DI19"/>
+      <c r="DJ19"/>
+      <c r="DK19"/>
+      <c r="DL19"/>
+      <c r="DM19"/>
+      <c r="DN19"/>
+      <c r="DO19"/>
+      <c r="DP19"/>
+      <c r="DQ19"/>
+      <c r="DR19"/>
+      <c r="DS19"/>
+      <c r="DT19"/>
+      <c r="DU19"/>
+      <c r="DV19"/>
+      <c r="DW19"/>
+      <c r="DX19"/>
+      <c r="DY19"/>
+      <c r="DZ19"/>
+      <c r="EA19"/>
+      <c r="EB19"/>
+      <c r="EC19"/>
+      <c r="ED19"/>
+      <c r="EE19"/>
+      <c r="EF19"/>
+      <c r="EG19"/>
+      <c r="EH19"/>
+      <c r="EI19"/>
+      <c r="EJ19"/>
+      <c r="EK19"/>
+      <c r="EL19"/>
+      <c r="EM19"/>
+      <c r="EN19"/>
+      <c r="EO19"/>
+      <c r="EP19"/>
+      <c r="EQ19"/>
+      <c r="ER19"/>
+      <c r="ES19"/>
+      <c r="ET19"/>
+      <c r="EU19"/>
+      <c r="EV19"/>
+      <c r="EW19"/>
+      <c r="EX19"/>
+      <c r="EY19"/>
+      <c r="EZ19"/>
+      <c r="FA19"/>
+      <c r="FB19"/>
+      <c r="FC19"/>
+      <c r="FD19"/>
+      <c r="FE19"/>
+      <c r="FF19"/>
+      <c r="FG19"/>
+      <c r="FH19"/>
+      <c r="FI19"/>
+      <c r="FJ19"/>
+      <c r="FK19"/>
+      <c r="FL19"/>
+      <c r="FM19"/>
+      <c r="FN19"/>
+      <c r="FO19"/>
+      <c r="FP19"/>
+      <c r="FQ19"/>
+      <c r="FR19"/>
+      <c r="FS19"/>
     </row>
-    <row r="20" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A20" s="1">
+    <row r="20" spans="1:175" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A20" s="5">
         <v>25313</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>797676</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>798308</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="4">
         <v>15</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="R20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
+      <c r="BN20"/>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CD20"/>
+      <c r="CE20"/>
+      <c r="CF20"/>
+      <c r="CG20"/>
+      <c r="CH20"/>
+      <c r="CI20"/>
+      <c r="CJ20"/>
+      <c r="CK20"/>
+      <c r="CL20"/>
+      <c r="CM20"/>
+      <c r="CN20"/>
+      <c r="CO20"/>
+      <c r="CP20"/>
+      <c r="CQ20"/>
+      <c r="CR20"/>
+      <c r="CS20"/>
+      <c r="CT20"/>
+      <c r="CU20"/>
+      <c r="CV20"/>
+      <c r="CW20"/>
+      <c r="CX20"/>
+      <c r="CY20"/>
+      <c r="CZ20"/>
+      <c r="DA20"/>
+      <c r="DB20"/>
+      <c r="DC20"/>
+      <c r="DD20"/>
+      <c r="DE20"/>
+      <c r="DF20"/>
+      <c r="DG20"/>
+      <c r="DH20"/>
+      <c r="DI20"/>
+      <c r="DJ20"/>
+      <c r="DK20"/>
+      <c r="DL20"/>
+      <c r="DM20"/>
+      <c r="DN20"/>
+      <c r="DO20"/>
+      <c r="DP20"/>
+      <c r="DQ20"/>
+      <c r="DR20"/>
+      <c r="DS20"/>
+      <c r="DT20"/>
+      <c r="DU20"/>
+      <c r="DV20"/>
+      <c r="DW20"/>
+      <c r="DX20"/>
+      <c r="DY20"/>
+      <c r="DZ20"/>
+      <c r="EA20"/>
+      <c r="EB20"/>
+      <c r="EC20"/>
+      <c r="ED20"/>
+      <c r="EE20"/>
+      <c r="EF20"/>
+      <c r="EG20"/>
+      <c r="EH20"/>
+      <c r="EI20"/>
+      <c r="EJ20"/>
+      <c r="EK20"/>
+      <c r="EL20"/>
+      <c r="EM20"/>
+      <c r="EN20"/>
+      <c r="EO20"/>
+      <c r="EP20"/>
+      <c r="EQ20"/>
+      <c r="ER20"/>
+      <c r="ES20"/>
+      <c r="ET20"/>
+      <c r="EU20"/>
+      <c r="EV20"/>
+      <c r="EW20"/>
+      <c r="EX20"/>
+      <c r="EY20"/>
+      <c r="EZ20"/>
+      <c r="FA20"/>
+      <c r="FB20"/>
+      <c r="FC20"/>
+      <c r="FD20"/>
+      <c r="FE20"/>
+      <c r="FF20"/>
+      <c r="FG20"/>
+      <c r="FH20"/>
+      <c r="FI20"/>
+      <c r="FJ20"/>
+      <c r="FK20"/>
+      <c r="FL20"/>
+      <c r="FM20"/>
+      <c r="FN20"/>
+      <c r="FO20"/>
+      <c r="FP20"/>
+      <c r="FQ20"/>
+      <c r="FR20"/>
+      <c r="FS20"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A21" s="1">
+    <row r="21" spans="1:175" x14ac:dyDescent="0.75">
+      <c r="A21" s="5">
         <v>25343</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>807271</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>808107</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="4">
         <v>15</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="R21" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A22" s="1">
+    <row r="22" spans="1:175" x14ac:dyDescent="0.75">
+      <c r="A22" s="5">
         <v>28299</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>61022</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>61729</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="4" t="s">
         <v>165</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
